--- a/src/loadcell_powerconsumption_analysist.xlsx
+++ b/src/loadcell_powerconsumption_analysist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\wp1_milestone1\wp1_milestone1\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B53BBE-2F13-43CE-9FD6-685F9A87F31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E86FB5-F9DE-4272-96AE-1D196A2C983D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1868" windowWidth="21578" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,5887 +75,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Lift force (g)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$452</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="452"/>
-                <c:pt idx="0">
-                  <c:v>14.316000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.532</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.747999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.802</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.856</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.964</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.018000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.071999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.234</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.288</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.342000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.504</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.612</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15.666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.773999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.827999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.882</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15.936</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.99</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.044</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.097999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16.206</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16.314</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16.367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16.422000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.584</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.638000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16.692</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16.745999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.908000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.962</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17.015999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17.123999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.178000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17.231999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.286000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17.34</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.393999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.448</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.501999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>17.556000000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.664000000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.718</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.771999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.826000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.88</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17.934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.988</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>18.042000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>18.096</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>18.204000000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18.257999999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.312000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>18.366</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>18.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.474</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>18.527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18.582000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>18.635999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>18.690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18.744</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18.797999999999998</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>18.852</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>18.905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19.013999999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>19.068000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>19.122</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>19.175999999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>19.23</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>19.283999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>19.338000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>19.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19.446000000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>19.553999999999998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>19.608000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>19.661999999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>19.716000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>19.77</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>19.824000000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>19.878</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>19.931999999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>19.986000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>20.04</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>20.094000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>20.148</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>20.202000000000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>20.256</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>20.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20.364000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>20.417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>20.472000000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>20.526</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>20.58</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>20.634</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>20.687999999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20.742000000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>20.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>20.85</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>20.904</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>20.957999999999998</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>21.012</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>21.065999999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>21.12</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>21.173999999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>21.228000000000002</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>21.282</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>21.335999999999999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>21.443999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>21.498000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>21.552</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>21.606000000000002</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>21.66</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>21.713999999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>21.768000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>21.821999999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>21.876000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>21.93</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>21.984000000000002</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>22.038</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>22.091999999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>22.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>22.254000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>22.308</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>22.361999999999998</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>22.416</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>22.47</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>22.524000000000001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>22.577999999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>22.632000000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>22.686</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>22.74</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>22.794</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>22.847999999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>22.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>22.956</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>23.064</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>23.117999999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>23.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>23.225999999999999</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>23.28</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>23.334</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>23.388000000000002</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>23.442</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>23.495999999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>23.55</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>23.603999999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>23.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>23.712</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>23.765999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>23.82</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>23.873999999999999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>23.928000000000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>23.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>24.036000000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>24.09</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>24.143999999999998</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>24.198</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>24.251999999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>24.306000000000001</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>24.36</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>24.414000000000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>24.468</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>24.521999999999998</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>24.576000000000001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>24.63</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>24.684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>24.738</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>24.792000000000002</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>24.846</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>24.9</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>24.954000000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>25.007999999999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>25.062000000000001</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>25.116</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>25.224</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>25.277999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>25.332000000000001</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>25.385999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>25.44</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>25.494</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>25.547999999999998</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>25.602</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>25.655999999999999</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>25.71</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>25.763999999999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>25.818000000000001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>25.872</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>25.925999999999998</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>25.98</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>26.033999999999999</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>26.088000000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>26.141999999999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>26.196000000000002</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>26.303999999999998</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>26.358000000000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>26.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>26.466000000000001</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>26.52</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>26.574000000000002</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>26.628</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>26.681999999999999</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>26.736000000000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>26.79</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>26.844000000000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>26.898</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>26.952000000000002</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>27.006</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>27.114000000000001</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>27.167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>27.222000000000001</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>27.276</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>27.33</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>27.384</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>27.437999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>27.492000000000001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>27.545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>27.654</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>27.707999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>27.762</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>27.815999999999999</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>27.87</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>27.923999999999999</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>27.978000000000002</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>28.032</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>28.085999999999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>28.14</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>28.193999999999999</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>28.248000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>28.302</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>28.356000000000002</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>28.41</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>28.463999999999999</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>28.518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>28.571999999999999</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>28.626000000000001</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>28.68</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>28.734000000000002</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>28.788</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>28.841999999999999</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>28.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>28.95</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>29.004000000000001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>29.058</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>29.111999999999998</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>29.166</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>29.22</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>29.274000000000001</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>29.327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>29.382000000000001</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>29.436</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>29.49</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>29.544</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>29.597999999999999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>29.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>29.706</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>29.76</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>29.814</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>29.867999999999999</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>29.922000000000001</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>29.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>30.03</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>30.084</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>30.138000000000002</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>30.192</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>30.245999999999999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>30.353999999999999</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>30.408000000000001</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>30.462</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>30.515999999999998</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>30.57</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>30.623999999999999</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>30.678000000000001</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>30.731999999999999</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>30.786000000000001</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>30.84</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>30.893999999999998</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>30.948</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>31.001999999999999</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>31.056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>31.11</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>31.164000000000001</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>31.218</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>31.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>31.326000000000001</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>31.38</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>31.434000000000001</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>31.488</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>31.542000000000002</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>31.596</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>31.65</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>31.704000000000001</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>31.757999999999999</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>31.812000000000001</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>31.866</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>31.92</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>31.974</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>32.027999999999999</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>32.082000000000001</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>32.136000000000003</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>32.19</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>32.244</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>32.298000000000002</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>32.351999999999997</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>32.405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>32.46</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>32.514000000000003</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>32.567999999999998</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>32.622</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>32.676000000000002</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>32.729999999999997</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>32.783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>32.838000000000001</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>32.892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>32.945999999999998</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>33.054000000000002</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>33.107999999999997</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>33.161999999999999</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>33.216000000000001</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>33.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>33.323999999999998</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>33.378</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>33.432000000000002</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>33.485999999999997</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>33.54</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>33.594000000000001</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>33.648000000000003</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>33.701999999999998</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>33.756</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>33.81</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>33.863999999999997</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>33.917999999999999</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>33.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>34.026000000000003</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>34.08</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>34.134</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>34.188000000000002</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>34.241999999999997</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>34.295999999999999</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>34.35</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>34.404000000000003</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>34.457999999999998</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>34.512</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>34.566000000000003</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>34.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>34.673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>34.728000000000002</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>34.781999999999996</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>34.835999999999999</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>34.89</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>34.944000000000003</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>34.997999999999998</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>35.052</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>35.106000000000002</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>35.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>35.213999999999999</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>35.268000000000001</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>35.322000000000003</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>35.375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>35.43</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>35.484000000000002</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>35.537999999999997</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>35.591999999999999</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>35.646000000000001</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>35.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>35.753999999999998</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>35.808</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>35.862000000000002</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>35.915999999999997</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>35.97</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>36.024000000000001</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>36.078000000000003</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>36.131999999999998</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>36.186</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>36.24</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>36.293999999999997</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>36.347999999999999</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>36.402000000000001</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>36.456000000000003</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>36.51</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>36.564</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>36.618000000000002</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>36.671999999999997</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>36.725999999999999</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>36.78</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>36.834000000000003</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>36.887999999999998</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>36.942</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>36.996000000000002</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>37.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>37.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>37.158000000000001</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>37.212000000000003</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>37.265999999999998</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>37.32</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>37.374000000000002</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>37.427999999999997</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>37.481999999999999</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>37.536000000000001</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>37.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>37.643999999999998</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>37.698</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>37.752000000000002</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>37.805999999999997</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>37.86</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>37.914000000000001</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>37.968000000000004</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>38.021999999999998</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>38.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>38.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>38.183999999999997</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>38.238</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>38.292000000000002</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>38.345999999999997</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>38.454000000000001</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>38.508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>38.561999999999998</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>38.616</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>38.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$452</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="452"/>
-                <c:pt idx="0">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.62</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.64</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.51</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.47</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.47</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.46</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.52</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.37</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.24</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.11</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.08</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5.26</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>9.17</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>23.53</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>29.11</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>32.51</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>36.54</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>42.28</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>44.4</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>46.38</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>47.84</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>50.55</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>51.62</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>52.15</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>52.45</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>53.5</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>54.18</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>54.22</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>54.42</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>54.84</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>54.67</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>54.67</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>55.19</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>55.42</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>55.1</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>55.43</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>55.6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>55.77</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>56.14</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>55.76</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>55.55</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>55.33</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>55.55</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>55.12</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>55.03</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>55.56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>55.69</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>55.78</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>55.56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>55.07</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>55.45</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>55.44</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>55.81</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>55.97</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>55.64</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>55.41</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>55.56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>55.1</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>55.19</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>55.53</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>55.58</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>58.01</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>58.32</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>60.54</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>61.09</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>62.16</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>62.77</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>64.39</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>65.17</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>65.62</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>66.13</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>66.88</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>67.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>67.66</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>67.94</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>69.010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>69.08</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>69.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>70.23</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>71.27</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>71.8</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>72.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>72.67</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>73.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>74.11</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>74.56</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>75.09</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>75.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>75.66</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>75.86</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>75.92</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>76.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>76.67</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>76.75</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>76.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>76.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>76.47</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>76.27</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>76.11</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>76.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>77.02</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>77.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>78.23</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>79.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>79.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>81.27</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>84.67</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>86.01</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>87.68</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>88.92</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>91.91</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>93.7</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>94.87</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>96.45</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>98.27</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>98.73</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>99.49</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>99.75</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>100.38</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>100.56</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>100.75</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>100.94</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>101.16</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>100.99</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>101.01</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>101.05</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>101.34</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>101.2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>101.25</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>101.23</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>101.05</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>101.23</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>101.28</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>101.47</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>101.49</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>101.31</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>100.99</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>100.71</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>100.36</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>100.5</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>109.11</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>109.38</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>109.63</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>109.88</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>101.67</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>103.3</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>104.04</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>104.48</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>105.37</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>107.28</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>108.05</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>108.76</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>109.44</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>110.27</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>110.95</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>111.12</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>111.28</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>111.9</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>112.06</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>112.18</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>112.04</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>111.8</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>111.77</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>111.8</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>111.54</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>111.37</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>111.11</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>111.2</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>111.54</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>112.16</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>112.37</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>112.65</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>112.91</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>113.89</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>114.16</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>114.5</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>114.71</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>116.08</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>116.89</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>117.67</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>118.95</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>120.86</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>121.86</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>122.7</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>123.26</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>124.55</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>124.84</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>125.33</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>125.7</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>126.8</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>127.05</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>127.48</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>127.68</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>128.41999999999999</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>128.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>128.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>128.93</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>129.01</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>129.16</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>129.18</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>129.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>129.51</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>129.49</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>129.65</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>129.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>129.97</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>130.25</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>130.47999999999999</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>130.94</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>132.21</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>133.16999999999999</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>134.08000000000001</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>134.72</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>136.44</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>136.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>137.46</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>138.04</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>139.62</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>140.22</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>140.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>140.75</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>140.81</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>140.84</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>140.94999999999999</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>141.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>141.51</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>141.76</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>141.9</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>141.69</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>141.54</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>141.66</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>141.93</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>142.04</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>141.9</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>141.76</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>141.62</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>141.66</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>141.81</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>142.04</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>143.04</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>143.66</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>144.43</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>145.32</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>148.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>149.6</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>150.81</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>151.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>153.28</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>153.96</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>154.57</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>155.32</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>156.37</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>156.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>157.09</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>157.35</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>158.13</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>158.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>158.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>158.13</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>158.29</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>158.28</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>158.38</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>158.49</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>158.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>158.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>159.18</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>159.28</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>159.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>159.66</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>159.62</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>159.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>160.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>160.87</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>161.26</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>161.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>162.15</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>162.59</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>162.82</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>162.94</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>163.33000000000001</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>163.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>163.87</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>164.29</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>165.31</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>165.7</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>166.03</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>166.39</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>166.86</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>167.03</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>167.24</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>167.45</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>167.74</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>167.74</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>167.74</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>167.74</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>167.46</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>167.34</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>167.41</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>167.39</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>167.59</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>167.8</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>167.92</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>167.86</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>167.88</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>167.02</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>158.5</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>125.11</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>100.27</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>83.66</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>66.98</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>38.340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>27.25</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>14.54</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>6.28</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-466A-4031-B265-517AC52149F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Power consumption (W)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$452</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="452"/>
-                <c:pt idx="0">
-                  <c:v>14.316000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.423999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.532</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.586</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.694000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.747999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.802</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.856</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.964</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.018000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.071999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15.234</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.288</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>15.342000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.396000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>15.45</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.504</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.558</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.612</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15.666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>15.72</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.773999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15.827999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>15.882</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>15.936</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.99</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.044</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.097999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>16.152000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>16.206</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>16.314</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16.367999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16.422000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16.475999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>16.53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.584</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.638000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>16.692</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16.745999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>16.853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.908000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.962</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>17.015999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17.07</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17.123999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.178000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>17.231999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>17.286000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17.34</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17.393999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.448</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.501999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>17.556000000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>17.61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>17.664000000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>17.718</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>17.771999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17.826000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17.88</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17.934000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>17.988</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>18.042000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>18.096</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>18.204000000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>18.257999999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>18.312000000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>18.366</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>18.420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>18.474</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>18.527999999999999</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>18.582000000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>18.635999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>18.690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>18.744</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>18.797999999999998</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>18.852</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>18.905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>19.013999999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>19.068000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>19.122</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>19.175999999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>19.23</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>19.283999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>19.338000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>19.391999999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19.446000000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>19.553999999999998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>19.608000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>19.661999999999999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>19.716000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>19.77</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>19.824000000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>19.878</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>19.931999999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>19.986000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>20.04</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>20.094000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>20.148</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>20.202000000000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>20.256</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>20.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>20.364000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>20.417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>20.472000000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>20.526</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>20.58</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>20.634</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>20.687999999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>20.742000000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>20.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>20.85</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>20.904</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>20.957999999999998</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>21.012</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>21.065999999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>21.12</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>21.173999999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>21.228000000000002</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>21.282</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>21.335999999999999</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>21.39</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>21.443999999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>21.498000000000001</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>21.552</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>21.606000000000002</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>21.66</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>21.713999999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>21.768000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>21.821999999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>21.876000000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>21.93</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>21.984000000000002</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>22.038</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>22.091999999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>22.146000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>22.254000000000001</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>22.308</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>22.361999999999998</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>22.416</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>22.47</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>22.524000000000001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>22.577999999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>22.632000000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>22.686</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>22.74</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>22.794</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>22.847999999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>22.902000000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>22.956</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>23.01</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>23.064</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>23.117999999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>23.172000000000001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>23.225999999999999</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>23.28</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>23.334</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>23.388000000000002</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>23.442</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>23.495999999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>23.55</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>23.603999999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>23.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>23.712</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>23.765999999999998</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>23.82</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>23.873999999999999</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>23.928000000000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>23.981999999999999</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>24.036000000000001</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>24.09</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>24.143999999999998</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>24.198</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>24.251999999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>24.306000000000001</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>24.36</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>24.414000000000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>24.468</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>24.521999999999998</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>24.576000000000001</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>24.63</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>24.684000000000001</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>24.738</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>24.792000000000002</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>24.846</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>24.9</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>24.954000000000001</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>25.007999999999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>25.062000000000001</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>25.116</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>25.224</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>25.277999999999999</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>25.332000000000001</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>25.385999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>25.44</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>25.494</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>25.547999999999998</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>25.602</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>25.655999999999999</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>25.71</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>25.763999999999999</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>25.818000000000001</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>25.872</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>25.925999999999998</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>25.98</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>26.033999999999999</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>26.088000000000001</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>26.141999999999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>26.196000000000002</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>26.25</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>26.303999999999998</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>26.358000000000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>26.411999999999999</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>26.466000000000001</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>26.52</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>26.574000000000002</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>26.628</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>26.681999999999999</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>26.736000000000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>26.79</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>26.844000000000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>26.898</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>26.952000000000002</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>27.006</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>27.06</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>27.114000000000001</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>27.167999999999999</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>27.222000000000001</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>27.276</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>27.33</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>27.384</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>27.437999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>27.492000000000001</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>27.545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>27.654</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>27.707999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>27.762</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>27.815999999999999</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>27.87</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>27.923999999999999</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>27.978000000000002</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>28.032</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>28.085999999999999</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>28.14</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>28.193999999999999</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>28.248000000000001</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>28.302</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>28.356000000000002</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>28.41</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>28.463999999999999</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>28.518000000000001</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>28.571999999999999</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>28.626000000000001</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>28.68</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>28.734000000000002</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>28.788</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>28.841999999999999</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>28.896000000000001</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>28.95</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>29.004000000000001</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>29.058</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>29.111999999999998</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>29.166</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>29.22</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>29.274000000000001</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>29.327999999999999</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>29.382000000000001</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>29.436</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>29.49</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>29.544</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>29.597999999999999</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>29.652000000000001</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>29.706</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>29.76</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>29.814</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>29.867999999999999</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>29.922000000000001</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>29.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>30.03</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>30.084</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>30.138000000000002</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>30.192</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>30.245999999999999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>30.3</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>30.353999999999999</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>30.408000000000001</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>30.462</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>30.515999999999998</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>30.57</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>30.623999999999999</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>30.678000000000001</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>30.731999999999999</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>30.786000000000001</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>30.84</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>30.893999999999998</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>30.948</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>31.001999999999999</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>31.056000000000001</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>31.11</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>31.164000000000001</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>31.218</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>31.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>31.326000000000001</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>31.38</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>31.434000000000001</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>31.488</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>31.542000000000002</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>31.596</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>31.65</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>31.704000000000001</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>31.757999999999999</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>31.812000000000001</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>31.866</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>31.92</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>31.974</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>32.027999999999999</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>32.082000000000001</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>32.136000000000003</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>32.19</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>32.244</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>32.298000000000002</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>32.351999999999997</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>32.405999999999999</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>32.46</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>32.514000000000003</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>32.567999999999998</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>32.622</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>32.676000000000002</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>32.729999999999997</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>32.783999999999999</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>32.838000000000001</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>32.892000000000003</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>32.945999999999998</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>33.054000000000002</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>33.107999999999997</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>33.161999999999999</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>33.216000000000001</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>33.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>33.323999999999998</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>33.378</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>33.432000000000002</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>33.485999999999997</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>33.54</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>33.594000000000001</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>33.648000000000003</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>33.701999999999998</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>33.756</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>33.81</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>33.863999999999997</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>33.917999999999999</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>33.972000000000001</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>34.026000000000003</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>34.08</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>34.134</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>34.188000000000002</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>34.241999999999997</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>34.295999999999999</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>34.35</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>34.404000000000003</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>34.457999999999998</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>34.512</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>34.566000000000003</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>34.619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>34.673999999999999</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>34.728000000000002</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>34.781999999999996</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>34.835999999999999</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>34.89</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>34.944000000000003</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>34.997999999999998</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>35.052</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>35.106000000000002</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>35.159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>35.213999999999999</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>35.268000000000001</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>35.322000000000003</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>35.375999999999998</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>35.43</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>35.484000000000002</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>35.537999999999997</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>35.591999999999999</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>35.646000000000001</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>35.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>35.753999999999998</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>35.808</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>35.862000000000002</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>35.915999999999997</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>35.97</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>36.024000000000001</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>36.078000000000003</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>36.131999999999998</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>36.186</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>36.24</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>36.293999999999997</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>36.347999999999999</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>36.402000000000001</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>36.456000000000003</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>36.51</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>36.564</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>36.618000000000002</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>36.671999999999997</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>36.725999999999999</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>36.78</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>36.834000000000003</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>36.887999999999998</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>36.942</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>36.996000000000002</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>37.049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>37.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>37.158000000000001</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>37.212000000000003</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>37.265999999999998</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>37.32</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>37.374000000000002</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>37.427999999999997</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>37.481999999999999</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>37.536000000000001</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>37.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>37.643999999999998</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>37.698</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>37.752000000000002</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>37.805999999999997</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>37.86</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>37.914000000000001</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>37.968000000000004</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>38.021999999999998</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>38.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>38.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>38.183999999999997</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>38.238</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>38.292000000000002</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>38.345999999999997</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>38.454000000000001</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>38.508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>38.561999999999998</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>38.616</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>38.67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$452</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="452"/>
-                <c:pt idx="0">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.63</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.62</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.59</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>4.25</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>10.199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>8.66</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>8.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>10.09</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>9.7100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>9.51</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>9.36</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9.34</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>9.14</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>8.84</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>9.11</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>9.16</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>9.02</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>9.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>9.1199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>9.06</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>9.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>9.08</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>9.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>9.25</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>9.23</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>9.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>9.18</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>9.06</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>9.2799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>9.09</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>9.02</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>9.0299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>9.07</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>9.06</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>9.15</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>9.0500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>8.99</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>9.2899999999999991</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>9.6199999999999992</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>9.86</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>10.1</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>10.27</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>10.46</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>10.56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>10.62</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>10.97</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>11.05</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>12.21</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>12.37</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>12.47</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.74</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12.96</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>13.15</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12.97</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>13.18</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>13.15</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>13.14</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12.71</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>13.19</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>13.07</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>12.95</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>12.88</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>12.91</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>13.37</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>13.58</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>13.24</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>13.57</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>14.19</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>14.34</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>14.95</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>15.48</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>15.96</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>16.22</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>16.68</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>16.850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>17.2</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>17.18</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>17.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>17.3</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>17.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>17.12</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>17.18</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>17.21</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>17.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>17.11</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>17.23</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>17.18</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>17.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>17.239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>17.27</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>17.27</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>17.29</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>17.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>17.04</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>17.09</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>17.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>17.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>17.05</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>17.13</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>17.329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>17.09</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>17.22</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>17.170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>17.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>17.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>17.57</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>18.13</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>18.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>18.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>18.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>18.809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>18.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>18.79</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>18.82</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>18.98</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>19.010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>18.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>18.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>18.86</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>18.98</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>18.95</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>18.89</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>18.989999999999998</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>18.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>18.940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>18.96</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>19.05</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>19.04</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>19.190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>19.149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>19.37</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>19.54</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>19.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>19.75</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>19.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>20.29</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>20.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>20.34</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>20.440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>20.72</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>20.71</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>21.25</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>21.02</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>20.92</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>21.17</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>21.35</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>21.51</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>21.58</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>21.52</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>21.51</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>21.55</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>21.9</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>21.58</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>21.73</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>21.46</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>21.6</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>21.53</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>21.73</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>21.49</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>21.52</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>21.66</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>21.95</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>21.94</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>22.31</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>22.49</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>22.58</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>22.64</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>22.85</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>22.82</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>23.17</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>22.98</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>23.37</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>23.26</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>22.97</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>23.45</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>23.11</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>23.34</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>23.38</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>23.28</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>23.18</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>23.42</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>23.32</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>23.37</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>23.2</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>23.05</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>23.14</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>23.37</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>23.33</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>23.08</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>23.02</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>23.19</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>23.43</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>23.17</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>23.57</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>23.8</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>23.67</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>24.03</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>24.75</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>24.66</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>24.86</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>24.86</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>25.09</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>24.95</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>25.11</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>24.81</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>25.07</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>24.96</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>24.78</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>25.01</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>25.22</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>25.04</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>24.82</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>25.17</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>24.82</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>25.24</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>25.18</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>24.99</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>25.29</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>24.99</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>25.04</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>25.37</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>25.4</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>25.32</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>25.16</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>25.23</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>25.08</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>25.05</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>25.25</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>25.01</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>25.09</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>25.02</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>25.25</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>25.16</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>25.34</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>24.97</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>25.36</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>25.15</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>25.51</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>25.21</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>25.06</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>24.77</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>24.83</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>24.81</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>24.72</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>24.32</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>24.53</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>24.47</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>24.41</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>24.23</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>24.08</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>24.45</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>24.23</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>24.03</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>24.05</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>23.8</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>24.06</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>2.63</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>4.2699999999999996</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>5.18</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>5.29</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>5.18</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>5.31</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>5.54</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>5.63</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>2.46</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>2.4700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>2.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-466A-4031-B265-517AC52149F1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="93419919"/>
-        <c:axId val="1682322159"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="93419919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="45"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1682322159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1682322159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="93419919"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="12"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11838,7 +5957,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17676,6 +11795,2204 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12019933026521917"/>
+          <c:y val="4.1994728564351436E-2"/>
+          <c:w val="0.80866778141570139"/>
+          <c:h val="0.82722246174559588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lift force vs Power consumption</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.64535891759028E-2"/>
+                  <c:y val="5.6431202583826875E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$160:$B$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.47</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.74</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.38</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.19</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.95</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.96</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.68</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.23</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.18</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17.29</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17.04</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.09</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17.05</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>17.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>17.09</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>17.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>17.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>17.57</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>18.13</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>18.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>18.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>18.79</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18.82</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>19.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.86</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.98</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18.95</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.89</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18.940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18.96</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19.05</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>19.04</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>19.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.37</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19.54</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>19.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20.29</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>20.34</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20.72</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>21.02</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20.92</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>21.17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21.35</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>21.51</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>21.51</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>21.55</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>21.46</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>21.53</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>21.73</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>21.49</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>21.52</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>21.66</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>21.95</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>21.94</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22.31</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>22.49</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22.58</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>22.64</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>22.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>22.82</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>22.98</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>23.45</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>23.11</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>23.38</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>23.28</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>23.18</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>23.42</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>23.32</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>23.05</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>23.14</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>23.33</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>23.08</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>23.02</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>23.19</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>23.43</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>23.57</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>23.67</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>24.03</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>24.66</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>24.86</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>24.86</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>24.95</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>25.07</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>24.96</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>24.78</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>25.22</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>24.82</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>24.82</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>25.24</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>25.18</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>25.29</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>25.37</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>25.32</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>25.23</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>25.05</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>25.09</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>25.02</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>25.16</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>25.34</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>24.97</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>25.36</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>25.15</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>25.51</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>25.21</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25.06</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>24.77</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>24.83</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>24.81</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>24.72</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>24.32</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>24.47</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>24.41</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>24.08</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>24.45</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>24.23</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>24.03</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>24.05</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>24.06</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$160:$A$452</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>55.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.07</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.56</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.53</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.54</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.09</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>62.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>64.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>65.62</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.88</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>67.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.94</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>70.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>71.27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>74.56</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75.09</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75.86</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75.92</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>76.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76.47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76.11</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>76.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>77.02</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78.23</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.27</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>84.67</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>86.01</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>88.92</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>91.91</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94.87</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>96.45</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>98.27</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>98.73</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>99.49</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>100.38</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>100.56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>100.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>100.94</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>101.16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>100.99</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>101.01</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>101.05</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>101.34</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>101.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>101.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>101.23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>101.05</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>101.23</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>101.28</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>101.47</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>101.49</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>101.31</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>100.99</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>100.71</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>100.36</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>109.11</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>109.38</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>109.63</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.88</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>101.67</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>104.04</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>104.48</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>105.37</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>107.28</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>108.05</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>108.76</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>109.44</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>110.27</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>110.95</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>111.12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>111.28</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>111.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>112.06</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>112.18</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>112.04</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>111.77</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>111.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>111.54</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>111.37</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>111.11</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>111.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>111.54</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>112.16</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>112.37</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>112.65</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>112.91</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>113.89</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>114.16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>114.71</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>116.08</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>116.89</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>117.67</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>118.95</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>120.86</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>121.86</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>122.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>123.26</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>124.55</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>124.84</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>125.33</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>125.7</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>126.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>127.05</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>127.48</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>127.68</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>128.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>128.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>128.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>128.93</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>129.01</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>129.16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>129.18</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>129.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>129.51</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>129.49</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>129.65</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>129.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>129.97</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>130.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>130.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>130.94</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>132.21</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>133.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>134.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>134.72</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>136.44</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>136.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>137.46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>138.04</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>139.62</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>140.22</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>140.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>140.75</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>140.81</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>140.84</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>140.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>141.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>141.51</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>141.76</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>141.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>141.69</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>141.54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>141.66</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>141.93</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>142.04</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>141.76</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>141.62</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>141.66</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>141.81</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>142.04</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>143.04</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>143.66</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>144.43</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>145.32</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>148.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>149.6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>150.81</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>151.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>153.28</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>153.96</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>154.57</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>155.32</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>156.37</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>156.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>157.09</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>157.35</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>158.13</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>158.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>158.13</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>158.29</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>158.28</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>158.38</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>158.49</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>158.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>158.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>159.18</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>159.28</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>159.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>159.66</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>159.62</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>159.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>160.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>160.87</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>161.26</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>161.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>162.15</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>162.59</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>162.82</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>162.94</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>163.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>163.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>163.87</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>164.29</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>165.31</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>165.7</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>166.03</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>166.39</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>166.86</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>167.03</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>167.24</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>167.45</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>167.74</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>167.74</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>167.74</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>167.74</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>167.46</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>167.34</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>167.41</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>167.39</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>167.59</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>167.8</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>167.92</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>167.86</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>167.88</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>167.02</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>125.11</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>100.27</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>83.66</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>38.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.28</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6316-49D2-8A78-409B4EDD4F32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93419919"/>
+        <c:axId val="1682322159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93419919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Power</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> consumption (W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682322159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682322159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lift</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> force (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93419919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -19393,42 +15710,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>433386</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>169067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C471E0F1-878A-E133-1589-0E2A1A17E7DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>433388</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
@@ -19458,7 +15739,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19483,6 +15764,44 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C47D32-914F-4FFF-9CC7-E10F8B199446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585789</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775E45D3-0083-4F7E-BB2A-E8A44FC36191}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19804,16 +16123,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D431" sqref="D431"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.73046875" customWidth="1"/>
+    <col min="2" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="4.73046875" customWidth="1"/>
+    <col min="5" max="5" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
